--- a/SPECIFICATION/core_spec_cleaned.xlsx
+++ b/SPECIFICATION/core_spec_cleaned.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="core_interface" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,14 +16,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="436">
   <si>
     <t xml:space="preserve">Interface</t>
   </si>
@@ -79,13 +79,15 @@
     <t xml:space="preserve">s_input</t>
   </si>
   <si>
-    <t xml:space="preserve">ready to accept(1)Refuse(0)</t>
+    <t xml:space="preserve">ready to accept(1)
+Refuse(0)</t>
   </si>
   <si>
     <t xml:space="preserve">s_output</t>
   </si>
   <si>
-    <t xml:space="preserve">output is occur(1)output is in-compute or dropped(0). </t>
+    <t xml:space="preserve">output is occur(1)
+output is in-compute or dropped(0). </t>
   </si>
   <si>
     <t xml:space="preserve">-end-</t>
@@ -100,13 +102,15 @@
     <t xml:space="preserve">s_enable</t>
   </si>
   <si>
-    <t xml:space="preserve">status that rob is committing the instruction(1)Otherwise (0)</t>
+    <t xml:space="preserve">status that rob is committing the instruction(1)
+Otherwise (0)</t>
   </si>
   <si>
     <t xml:space="preserve">s_cur</t>
   </si>
   <si>
-    <t xml:space="preserve">status that current committing instruction is no fault(1), Otherwise (0)</t>
+    <t xml:space="preserve">status that current committing instruction is no fault(1), 
+Otherwise (0)</t>
   </si>
   <si>
     <t xml:space="preserve">s_cur_fcode</t>
@@ -244,7 +248,10 @@
     <t xml:space="preserve">c_insert</t>
   </si>
   <si>
-    <t xml:space="preserve">command that intend to insert to arrayInsert (1) do not insert anythings(0) </t>
+    <t xml:space="preserve">command that intend to insert to array
+Insert (1) 
+do not insert anythings(0) 
+</t>
   </si>
   <si>
     <t xml:space="preserve">i_index_input</t>
@@ -535,36 +542,24 @@
     <t xml:space="preserve">Guild committer to load data from memory to architectural register</t>
   </si>
   <si>
-    <t xml:space="preserve">2 bit</t>
-  </si>
-  <si>
     <t xml:space="preserve">c_ptoa_reg</t>
   </si>
   <si>
     <t xml:space="preserve">guild committer to store data from physical register to architectural register</t>
   </si>
   <si>
-    <t xml:space="preserve">3 bit</t>
-  </si>
-  <si>
     <t xml:space="preserve">c_ctoa_reg</t>
   </si>
   <si>
     <t xml:space="preserve">guild committer to load data from control status register to architectural register</t>
   </si>
   <si>
-    <t xml:space="preserve">4 bit</t>
-  </si>
-  <si>
     <t xml:space="preserve">c_atoc_reg</t>
   </si>
   <si>
     <t xml:space="preserve">guild committer to load data from architectural register to control status register</t>
   </si>
   <si>
-    <t xml:space="preserve">5 bit</t>
-  </si>
-  <si>
     <t xml:space="preserve">CMD_ROB_FILL</t>
   </si>
   <si>
@@ -709,6 +704,12 @@
     <t xml:space="preserve">size of index to identify execution pips in connected in each reservation station.</t>
   </si>
   <si>
+    <t xml:space="preserve">I_N_EX_PIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max number of execution pips in connected in each reservation station.</t>
+  </si>
+  <si>
     <t xml:space="preserve">size of bit length to specify trap cause</t>
   </si>
   <si>
@@ -847,6 +848,18 @@
     <t xml:space="preserve">for send transfer instruction data to decoder</t>
   </si>
   <si>
+    <t xml:space="preserve">iss_pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send pc to decoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iss_spec_pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">send spec pc to decoder</t>
+  </si>
+  <si>
     <t xml:space="preserve">st_DECODER</t>
   </si>
   <si>
@@ -877,7 +890,7 @@
     <t xml:space="preserve">decoded_instr</t>
   </si>
   <si>
-    <t xml:space="preserve">RSV_1,RSV_2,RSV_3,RSV_4</t>
+    <t xml:space="preserve">RSV_1,RSV_2,RSV_3,RSV_4,CORE_CONTROL_FLOW</t>
   </si>
   <si>
     <t xml:space="preserve">decoded_instr,decoded_instr,decoded_instr,decoded_instr</t>
@@ -895,6 +908,15 @@
     <t xml:space="preserve">use to pass current booking instruction commiting guild to rob</t>
   </si>
   <si>
+    <t xml:space="preserve">arch_pc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">receive pc from instr loader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arch_spec_pc</t>
+  </si>
+  <si>
     <t xml:space="preserve">RSV_1</t>
   </si>
   <si>
@@ -1127,6 +1149,12 @@
   </si>
   <si>
     <t xml:space="preserve">cmd_DECODER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">march_DECODER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use to guild core control flow to select rob properly</t>
   </si>
   <si>
     <t xml:space="preserve">commit_stat</t>
@@ -1480,7 +1508,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1517,6 +1545,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1531,6 +1563,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1567,6 +1603,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1676,8 +1716,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1126"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1695,13 +1735,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.61"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="56.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="AMJ1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1776,7 @@
       </c>
       <c r="AMJ2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1762,7 +1802,7 @@
       </c>
       <c r="AMJ3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1772,7 +1812,7 @@
       <c r="D4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="6" t="n">
@@ -1781,7 +1821,7 @@
       <c r="G4" s="5"/>
       <c r="AMJ4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
@@ -1791,7 +1831,7 @@
       <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F5" s="6" t="n">
@@ -1799,22 +1839,22 @@
       </c>
       <c r="AMJ5" s="2"/>
     </row>
-    <row r="6" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="AMH6" s="9"/>
-      <c r="AMI6" s="9"/>
-      <c r="AMJ6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH6" s="10"/>
+      <c r="AMI6" s="10"/>
+      <c r="AMJ6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
         <v>10</v>
@@ -1822,17 +1862,17 @@
       <c r="G7" s="5"/>
       <c r="AMJ7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="6" t="n">
@@ -1840,17 +1880,17 @@
       </c>
       <c r="AMJ8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="14" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="6" t="n">
@@ -1858,17 +1898,17 @@
       </c>
       <c r="AMJ9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="12" t="s">
         <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1876,17 +1916,17 @@
       </c>
       <c r="AMJ10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="59.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="12" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="6" t="n">
@@ -1894,17 +1934,17 @@
       </c>
       <c r="AMJ11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13" t="s">
+    <row r="12" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -1912,17 +1952,17 @@
       </c>
       <c r="AMJ12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="s">
+    <row r="13" customFormat="false" ht="41.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="15" t="s">
         <v>39</v>
       </c>
       <c r="F13" s="6" t="s">
@@ -1930,14 +1970,14 @@
       </c>
       <c r="AMJ13" s="2"/>
     </row>
-    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="AMH14" s="9"/>
-      <c r="AMI14" s="9"/>
-      <c r="AMJ14" s="9"/>
+      <c r="AMH14" s="10"/>
+      <c r="AMI14" s="10"/>
+      <c r="AMJ14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
@@ -1948,17 +1988,17 @@
       </c>
       <c r="AMJ15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
+    <row r="16" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="17" t="s">
         <v>42</v>
       </c>
       <c r="F16" s="6" t="n">
@@ -1966,17 +2006,17 @@
       </c>
       <c r="AMJ16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="s">
+    <row r="17" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="6" t="n">
@@ -1985,16 +2025,16 @@
       <c r="AMJ17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="17" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="6" t="n">
@@ -2002,17 +2042,17 @@
       </c>
       <c r="AMJ18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="17" t="s">
+    <row r="19" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="19" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="6" t="n">
@@ -2020,14 +2060,14 @@
       </c>
       <c r="AMJ19" s="2"/>
     </row>
-    <row r="20" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="AMH20" s="9"/>
-      <c r="AMI20" s="9"/>
-      <c r="AMJ20" s="9"/>
+      <c r="AMH20" s="10"/>
+      <c r="AMI20" s="10"/>
+      <c r="AMJ20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -2040,16 +2080,16 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="17" t="s">
         <v>52</v>
       </c>
       <c r="F22" s="6" t="n">
@@ -2059,16 +2099,16 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5"/>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="E23" s="21" t="n">
         <v>1</v>
       </c>
       <c r="AMI23" s="2"/>
@@ -2106,7 +2146,7 @@
       </c>
       <c r="AMI25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2131,7 +2171,7 @@
       <c r="D27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E27" s="19" t="n">
+      <c r="E27" s="21" t="n">
         <v>1</v>
       </c>
       <c r="AMI27" s="2"/>
@@ -2151,16 +2191,16 @@
       </c>
       <c r="AMI28" s="2"/>
     </row>
-    <row r="29" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="AMH29" s="9"/>
-      <c r="AMI29" s="9"/>
-      <c r="AMJ29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH29" s="10"/>
+      <c r="AMI29" s="10"/>
+      <c r="AMJ29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="22.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
         <v>65</v>
       </c>
@@ -2170,18 +2210,18 @@
       </c>
       <c r="AMJ30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="22.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5"/>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="17" t="s">
         <v>67</v>
       </c>
       <c r="AMJ31" s="2"/>
@@ -2202,23 +2242,23 @@
       </c>
       <c r="AMJ32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="20"/>
+    <row r="33" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="22"/>
       <c r="C33" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="20"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="22"/>
       <c r="AMJ33" s="2"/>
     </row>
-    <row r="34" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="AMH34" s="9"/>
-      <c r="AMI34" s="9"/>
-      <c r="AMJ34" s="9"/>
+      <c r="AMH34" s="10"/>
+      <c r="AMI34" s="10"/>
+      <c r="AMJ34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
@@ -2229,65 +2269,65 @@
       </c>
       <c r="AMJ35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="15" t="s">
+    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E36" s="15" t="s">
+      <c r="E36" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F36" s="20" t="n">
+      <c r="F36" s="22" t="n">
         <v>1</v>
       </c>
       <c r="AMJ36" s="2"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E37" s="15" t="s">
+      <c r="E37" s="17" t="s">
         <v>10</v>
       </c>
       <c r="AMJ37" s="2"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E38" s="17" t="s">
         <v>76</v>
       </c>
       <c r="AMJ38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="15" t="s">
+    <row r="39" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="17" t="s">
         <v>78</v>
       </c>
       <c r="AMJ39" s="2"/>
@@ -2322,14 +2362,14 @@
       </c>
       <c r="AMJ41" s="2"/>
     </row>
-    <row r="42" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="AMH42" s="9"/>
-      <c r="AMI42" s="9"/>
-      <c r="AMJ42" s="9"/>
+      <c r="AMH42" s="10"/>
+      <c r="AMI42" s="10"/>
+      <c r="AMJ42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
@@ -2341,16 +2381,16 @@
       <c r="AMJ43" s="2"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="16" t="s">
+      <c r="D44" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E44" s="17" t="s">
         <v>83</v>
       </c>
       <c r="F44" s="6" t="s">
@@ -2358,40 +2398,40 @@
       </c>
       <c r="AMJ44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="15" t="s">
+    <row r="45" customFormat="false" ht="48.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="15" t="s">
+      <c r="E45" s="17" t="s">
         <v>86</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
       <c r="AMJ45" s="2"/>
     </row>
-    <row r="46" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="AMH46" s="9"/>
-      <c r="AMI46" s="9"/>
-      <c r="AMJ46" s="9"/>
+      <c r="AMH46" s="10"/>
+      <c r="AMI46" s="10"/>
+      <c r="AMJ46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D47" s="16"/>
+      <c r="D47" s="18"/>
       <c r="F47" s="6" t="s">
         <v>89</v>
       </c>
@@ -2415,14 +2455,14 @@
       </c>
       <c r="AMJ48" s="2"/>
     </row>
-    <row r="49" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="AMH49" s="9"/>
-      <c r="AMI49" s="9"/>
-      <c r="AMJ49" s="9"/>
+      <c r="AMH49" s="10"/>
+      <c r="AMI49" s="10"/>
+      <c r="AMJ49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="5" t="s">
@@ -2559,7 +2599,7 @@
       </c>
       <c r="AMJ57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="7" t="s">
         <v>15</v>
       </c>
@@ -2647,14 +2687,14 @@
       </c>
       <c r="AMJ62" s="2"/>
     </row>
-    <row r="63" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="4"/>
-      <c r="AMH63" s="9"/>
-      <c r="AMI63" s="9"/>
-      <c r="AMJ63" s="9"/>
+      <c r="AMH63" s="10"/>
+      <c r="AMI63" s="10"/>
+      <c r="AMJ63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
@@ -2665,17 +2705,17 @@
       </c>
       <c r="AMJ64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="15" t="s">
+    <row r="65" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="15" t="s">
+      <c r="E65" s="17" t="s">
         <v>127</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -2683,17 +2723,17 @@
       </c>
       <c r="AMJ65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="15" t="s">
+    <row r="66" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="16" t="s">
+      <c r="D66" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E66" s="15" t="s">
+      <c r="E66" s="17" t="s">
         <v>129</v>
       </c>
       <c r="F66" s="6" t="s">
@@ -2702,16 +2742,16 @@
       <c r="AMJ66" s="2"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="15" t="s">
+      <c r="B67" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E67" s="15" t="s">
+      <c r="E67" s="17" t="s">
         <v>132</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -2719,14 +2759,14 @@
       </c>
       <c r="AMJ67" s="2"/>
     </row>
-    <row r="68" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="4"/>
-      <c r="AMH68" s="9"/>
-      <c r="AMI68" s="9"/>
-      <c r="AMJ68" s="9"/>
+      <c r="AMH68" s="10"/>
+      <c r="AMI68" s="10"/>
+      <c r="AMJ68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
@@ -2737,17 +2777,17 @@
       </c>
       <c r="AMJ69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="15" t="s">
+    <row r="70" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D70" s="16" t="s">
+      <c r="D70" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="15" t="s">
+      <c r="E70" s="17" t="s">
         <v>134</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -2755,17 +2795,17 @@
       </c>
       <c r="AMJ70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="15" t="s">
+    <row r="71" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D71" s="16" t="s">
+      <c r="D71" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="15" t="s">
+      <c r="E71" s="17" t="s">
         <v>135</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -2773,16 +2813,16 @@
       </c>
       <c r="AMJ71" s="2"/>
     </row>
-    <row r="72" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="4"/>
-      <c r="AMH72" s="9"/>
-      <c r="AMI72" s="9"/>
-      <c r="AMJ72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH72" s="10"/>
+      <c r="AMI72" s="10"/>
+      <c r="AMJ72" s="10"/>
+    </row>
+    <row r="73" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
         <v>137</v>
       </c>
@@ -2794,17 +2834,17 @@
       </c>
       <c r="AMJ73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="15" t="s">
+    <row r="74" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C74" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E74" s="15" t="s">
+      <c r="E74" s="17" t="s">
         <v>141</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -2812,17 +2852,17 @@
       </c>
       <c r="AMJ74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="15" t="s">
+    <row r="75" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="E75" s="15" t="s">
+      <c r="E75" s="17" t="s">
         <v>143</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -2830,17 +2870,17 @@
       </c>
       <c r="AMJ75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="15" t="s">
+    <row r="76" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="E76" s="15" t="s">
+      <c r="E76" s="17" t="s">
         <v>145</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -2849,16 +2889,16 @@
       <c r="AMJ76" s="2"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="15" t="s">
+      <c r="B77" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="16" t="s">
+      <c r="D77" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="17" t="s">
         <v>147</v>
       </c>
       <c r="F77" s="6" t="n">
@@ -2866,17 +2906,17 @@
       </c>
       <c r="AMJ77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="15" t="s">
+    <row r="78" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C78" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="17" t="s">
         <v>149</v>
       </c>
       <c r="F78" s="6" t="s">
@@ -2884,17 +2924,17 @@
       </c>
       <c r="AMJ78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="15" t="s">
+    <row r="79" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="16" t="s">
+      <c r="D79" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="17" t="s">
         <v>151</v>
       </c>
       <c r="F79" s="6" t="s">
@@ -2903,16 +2943,16 @@
       <c r="AMJ79" s="2"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="15" t="s">
+      <c r="B80" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C80" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="16" t="s">
+      <c r="D80" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="17" t="s">
         <v>152</v>
       </c>
       <c r="F80" s="6" t="s">
@@ -2921,16 +2961,16 @@
       <c r="AMJ80" s="2"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="15" t="s">
+      <c r="B81" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D81" s="16" t="s">
+      <c r="D81" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="17" t="s">
         <v>153</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -2938,17 +2978,17 @@
       </c>
       <c r="AMJ81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="11" t="s">
+    <row r="82" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="12" t="s">
         <v>141</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -2956,17 +2996,17 @@
       </c>
       <c r="AMJ82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="11" t="s">
+    <row r="83" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="12" t="s">
         <v>143</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -2974,17 +3014,17 @@
       </c>
       <c r="AMJ83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="11" t="s">
+    <row r="84" customFormat="false" ht="69.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="12" t="s">
+      <c r="D84" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="12" t="s">
         <v>145</v>
       </c>
       <c r="F84" s="6" t="s">
@@ -2992,17 +3032,17 @@
       </c>
       <c r="AMJ84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="11" t="s">
+    <row r="85" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="12" t="s">
         <v>154</v>
       </c>
       <c r="F85" s="6" t="n">
@@ -3010,17 +3050,17 @@
       </c>
       <c r="AMJ85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="11" t="s">
+    <row r="86" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="12" t="s">
         <v>155</v>
       </c>
       <c r="F86" s="6" t="n">
@@ -3028,17 +3068,17 @@
       </c>
       <c r="AMJ86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="11" t="s">
+    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D87" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="12" t="s">
         <v>157</v>
       </c>
       <c r="F87" s="6" t="n">
@@ -3046,17 +3086,17 @@
       </c>
       <c r="AMJ87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="11" t="s">
+    <row r="88" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="12" t="s">
         <v>143</v>
       </c>
       <c r="F88" s="6" t="s">
@@ -3064,17 +3104,17 @@
       </c>
       <c r="AMJ88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="11" t="s">
+    <row r="89" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="12" t="s">
         <v>145</v>
       </c>
       <c r="F89" s="6" t="s">
@@ -3082,16 +3122,16 @@
       </c>
       <c r="AMJ89" s="2"/>
     </row>
-    <row r="90" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="AMH90" s="9"/>
-      <c r="AMI90" s="9"/>
-      <c r="AMJ90" s="9"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH90" s="10"/>
+      <c r="AMI90" s="10"/>
+      <c r="AMJ90" s="10"/>
+    </row>
+    <row r="91" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
         <v>158</v>
       </c>
@@ -3103,17 +3143,17 @@
       </c>
       <c r="AMJ91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="11" t="s">
+    <row r="92" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="12" t="s">
+      <c r="D92" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="11" t="s">
+      <c r="E92" s="12" t="s">
         <v>149</v>
       </c>
       <c r="F92" s="6" t="s">
@@ -3121,17 +3161,17 @@
       </c>
       <c r="AMJ92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="11" t="s">
+    <row r="93" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E93" s="12" t="s">
         <v>151</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -3139,17 +3179,17 @@
       </c>
       <c r="AMJ93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="11" t="s">
+    <row r="94" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="12" t="s">
+      <c r="D94" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E94" s="11" t="s">
+      <c r="E94" s="12" t="s">
         <v>160</v>
       </c>
       <c r="F94" s="6" t="s">
@@ -3158,16 +3198,16 @@
       <c r="AMJ94" s="2"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C95" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="12" t="s">
+      <c r="D95" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E95" s="11" t="s">
+      <c r="E95" s="12" t="s">
         <v>152</v>
       </c>
       <c r="F95" s="6" t="s">
@@ -3176,16 +3216,16 @@
       <c r="AMJ95" s="2"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C96" s="11" t="s">
+      <c r="C96" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="E96" s="11" t="s">
+      <c r="E96" s="12" t="s">
         <v>153</v>
       </c>
       <c r="F96" s="6" t="s">
@@ -3193,17 +3233,17 @@
       </c>
       <c r="AMJ96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="11" t="s">
+    <row r="97" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D97" s="12" t="s">
+      <c r="D97" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="E97" s="11" t="s">
+      <c r="E97" s="12" t="s">
         <v>161</v>
       </c>
       <c r="F97" s="6" t="n">
@@ -3211,17 +3251,17 @@
       </c>
       <c r="AMJ97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="17" t="s">
+    <row r="98" customFormat="false" ht="52.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="19" t="s">
         <v>163</v>
       </c>
       <c r="F98" s="6" t="n">
@@ -3229,17 +3269,17 @@
       </c>
       <c r="AMJ98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="17" t="s">
+    <row r="99" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D99" s="18" t="s">
+      <c r="D99" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E99" s="19" t="s">
         <v>164</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -3247,39 +3287,39 @@
       </c>
       <c r="AMJ99" s="2"/>
     </row>
-    <row r="100" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="4"/>
-      <c r="AMH100" s="9"/>
-      <c r="AMI100" s="9"/>
-      <c r="AMJ100" s="9"/>
-    </row>
-    <row r="101" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH100" s="10"/>
+      <c r="AMI100" s="10"/>
+      <c r="AMJ100" s="10"/>
+    </row>
+    <row r="101" s="5" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D101" s="16"/>
+      <c r="D101" s="18"/>
       <c r="F101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AMH101" s="10"/>
-      <c r="AMI101" s="10"/>
-      <c r="AMJ101" s="10"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMH101" s="11"/>
+      <c r="AMI101" s="11"/>
+      <c r="AMJ101" s="11"/>
+    </row>
+    <row r="102" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2"/>
-      <c r="B102" s="17" t="s">
+      <c r="B102" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D102" s="18" t="s">
+      <c r="D102" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="E102" s="17" t="s">
+      <c r="E102" s="19" t="s">
         <v>167</v>
       </c>
       <c r="F102" s="6" t="n">
@@ -3287,144 +3327,144 @@
       </c>
       <c r="AMJ102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="17" t="s">
+    <row r="103" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E103" s="17" t="s">
+      <c r="E103" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ103" s="2"/>
+    </row>
+    <row r="104" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="AMJ103" s="2"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="17" t="s">
+      <c r="E104" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="F104" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ104" s="2"/>
+    </row>
+    <row r="105" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C105" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="E104" s="17" t="s">
+      <c r="D105" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="E105" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="AMJ104" s="2"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="17" t="s">
+      <c r="F105" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ105" s="2"/>
+    </row>
+    <row r="106" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C106" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="18" t="s">
+      <c r="D106" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="E105" s="17" t="s">
+      <c r="E106" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="F105" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="AMJ105" s="2"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C106" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="F106" s="6" t="s">
-        <v>179</v>
+      <c r="F106" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="AMJ106" s="2"/>
     </row>
-    <row r="107" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="4"/>
-      <c r="AMH107" s="9"/>
-      <c r="AMI107" s="9"/>
-      <c r="AMJ107" s="9"/>
+      <c r="AMH107" s="10"/>
+      <c r="AMI107" s="10"/>
+      <c r="AMJ107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="AMJ108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="11" t="s">
+    <row r="109" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C109" s="11" t="s">
+      <c r="C109" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E109" s="11" t="s">
-        <v>182</v>
+      <c r="E109" s="12" t="s">
+        <v>178</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>97</v>
       </c>
       <c r="AMJ109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="11" t="s">
+    <row r="110" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C110" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>184</v>
+      <c r="D110" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>180</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AMJ110" s="2"/>
     </row>
-    <row r="111" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="4"/>
-      <c r="AMH111" s="9"/>
-      <c r="AMI111" s="9"/>
-      <c r="AMJ111" s="9"/>
+      <c r="AMH111" s="10"/>
+      <c r="AMI111" s="10"/>
+      <c r="AMJ111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>50</v>
@@ -3432,17 +3472,17 @@
       <c r="AMJ112" s="2"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C113" s="11" t="s">
+      <c r="C113" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D113" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>188</v>
+      <c r="D113" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>184</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>108</v>
@@ -3450,17 +3490,17 @@
       <c r="AMJ113" s="2"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>190</v>
+      <c r="D114" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>186</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>136</v>
@@ -3468,17 +3508,17 @@
       <c r="AMJ114" s="2"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="D115" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="E115" s="11" t="s">
-        <v>191</v>
+      <c r="E115" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>136</v>
@@ -3486,71 +3526,71 @@
       <c r="AMJ115" s="2"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>193</v>
+      <c r="D116" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AMJ116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="13" t="s">
+    <row r="117" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D117" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>195</v>
+      <c r="D117" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>191</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>37</v>
       </c>
       <c r="AMJ117" s="2"/>
     </row>
-    <row r="118" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="4"/>
-      <c r="AMH118" s="9"/>
-      <c r="AMI118" s="9"/>
-      <c r="AMJ118" s="9"/>
+      <c r="AMH118" s="10"/>
+      <c r="AMI118" s="10"/>
+      <c r="AMJ118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AMJ119" s="2"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D120" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>198</v>
+      <c r="D120" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>194</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>108</v>
@@ -3558,17 +3598,17 @@
       <c r="AMJ120" s="2"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C121" s="11" t="s">
+      <c r="C121" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>200</v>
+      <c r="D121" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>116</v>
@@ -3576,76 +3616,76 @@
       <c r="AMJ121" s="2"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C122" s="11" t="s">
+      <c r="C122" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>202</v>
+      <c r="D122" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>84</v>
       </c>
       <c r="AMJ122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="11" t="s">
+    <row r="123" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AMJ123" s="2"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E124" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="E123" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AMJ123" s="2"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D124" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>207</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>30</v>
       </c>
       <c r="AMJ124" s="2"/>
     </row>
-    <row r="125" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="3" customFormat="true" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="4"/>
-      <c r="AMH125" s="9"/>
-      <c r="AMI125" s="9"/>
-      <c r="AMJ125" s="9"/>
+      <c r="AMH125" s="10"/>
+      <c r="AMI125" s="10"/>
+      <c r="AMJ125" s="10"/>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D126" s="22"/>
-      <c r="AMH126" s="23"/>
-      <c r="AMI126" s="23"/>
-      <c r="AMJ126" s="23"/>
+        <v>204</v>
+      </c>
+      <c r="D126" s="25"/>
+      <c r="AMH126" s="26"/>
+      <c r="AMI126" s="26"/>
+      <c r="AMJ126" s="26"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMJ127" s="2"/>
@@ -6653,11 +6693,11 @@
     <mergeCell ref="B24:B28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6667,7 +6707,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1024"/>
+  <dimension ref="A1:AMJ1025"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -6680,40 +6720,40 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="16.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AMJ1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="AMJ2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -6721,39 +6761,39 @@
       <c r="E3" s="5"/>
       <c r="AMJ3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="AMJ4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>4</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AMJ5" s="5"/>
     </row>
@@ -6762,7 +6802,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>2</v>
@@ -6770,48 +6810,48 @@
       <c r="E6" s="5"/>
       <c r="AMI6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="5" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="AMJ7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>6</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AMJ8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="AMJ9" s="5"/>
     </row>
@@ -6820,195 +6860,207 @@
         <v>119</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="AMJ10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="AMJ11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AMJ12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="5" t="s">
-        <v>229</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AMJ13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="5" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D14" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="AMJ14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D15" s="5" t="n">
         <v>32</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="AMJ14" s="5"/>
-    </row>
-    <row r="15" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+      <c r="E15" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AMJ15" s="5"/>
+    </row>
+    <row r="16" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>32</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="AMJ17" s="5"/>
+    <row r="17" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>32</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="AMJ18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="5" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>32</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="AMJ19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>32</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AMJ20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AMJ21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="5" t="s">
-        <v>239</v>
+        <v>122</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D22" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AMJ22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D23" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="AMJ22" s="5"/>
-    </row>
-    <row r="23" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="s">
+      <c r="E23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="AMJ23" s="5"/>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="AMH24" s="23"/>
-      <c r="AMI24" s="23"/>
-      <c r="AMJ24" s="23"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMJ25" s="5"/>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="AMH25" s="26"/>
+      <c r="AMI25" s="26"/>
+      <c r="AMJ25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMJ26" s="5"/>
@@ -10006,17 +10058,20 @@
     </row>
     <row r="1024" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMJ1024" s="5"/>
+    </row>
+    <row r="1025" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1025" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E5:E6"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10026,132 +10081,132 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ127"/>
+  <dimension ref="A1:AMJ132"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="72.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="D2" s="27" t="s">
         <v>243</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="F2" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="F3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D4" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="G4" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="5" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="24" t="s">
+      <c r="F5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C6" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="12" t="s">
+      <c r="F6" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10167,2068 +10222,2088 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="AMG14" s="0"/>
+      <c r="AMH14" s="0"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="F16" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="27.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="AMG24" s="0"/>
+      <c r="AMH24" s="0"/>
+      <c r="AMI24" s="0"/>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5"/>
+      <c r="B26" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24" t="s">
+      <c r="E26" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="AMG30" s="0"/>
+      <c r="AMH30" s="0"/>
+      <c r="AMI30" s="0"/>
+      <c r="AMJ30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C32" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D32" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="AMG38" s="0"/>
+      <c r="AMH38" s="0"/>
+      <c r="AMI38" s="0"/>
+      <c r="AMJ38" s="0"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F39" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H42" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="AMG44" s="10"/>
+      <c r="AMH44" s="10"/>
+      <c r="AMI44" s="10"/>
+      <c r="AMJ44" s="0"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="G48" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="AMG12" s="0"/>
-      <c r="AMH12" s="0"/>
-      <c r="AMI12" s="0"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="24" t="s">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="AMG50" s="10"/>
+      <c r="AMH50" s="10"/>
+      <c r="AMI50" s="10"/>
+      <c r="AMJ50" s="0"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="AMG53" s="10"/>
+      <c r="AMH53" s="10"/>
+      <c r="AMI53" s="10"/>
+      <c r="AMJ53" s="0"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="AMG56" s="10"/>
+      <c r="AMH56" s="10"/>
+      <c r="AMI56" s="10"/>
+      <c r="AMJ56" s="0"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="AMG59" s="10"/>
+      <c r="AMH59" s="10"/>
+      <c r="AMI59" s="10"/>
+      <c r="AMJ59" s="0"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="AMG62" s="10"/>
+      <c r="AMH62" s="10"/>
+      <c r="AMI62" s="10"/>
+      <c r="AMJ62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="AMG65" s="10"/>
+      <c r="AMH65" s="10"/>
+      <c r="AMI65" s="10"/>
+      <c r="AMJ65" s="0"/>
+    </row>
+    <row r="66" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B66" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C66" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D66" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="H66" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AMG66" s="0"/>
+      <c r="AMH66" s="0"/>
+      <c r="AMI66" s="0"/>
+      <c r="AMJ66" s="0"/>
+    </row>
+    <row r="67" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="28"/>
+      <c r="B67" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E67" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="24" t="s">
+      <c r="F67" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AME67" s="0"/>
+      <c r="AMF67" s="0"/>
+      <c r="AMG67" s="0"/>
+      <c r="AMH67" s="0"/>
+      <c r="AMI67" s="0"/>
+      <c r="AMJ67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="AMG70" s="10"/>
+      <c r="AMH70" s="10"/>
+      <c r="AMI70" s="10"/>
+      <c r="AMJ70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="AMG73" s="10"/>
+      <c r="AMH73" s="10"/>
+      <c r="AMI73" s="10"/>
+      <c r="AMJ73" s="0"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="AMG76" s="10"/>
+      <c r="AMH76" s="10"/>
+      <c r="AMI76" s="10"/>
+      <c r="AMJ76" s="0"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="79" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="AMG79" s="10"/>
+      <c r="AMH79" s="10"/>
+      <c r="AMI79" s="10"/>
+      <c r="AMJ79" s="0"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C81" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D81" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F81" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="24" t="s">
+      <c r="G81" s="5"/>
+    </row>
+    <row r="82" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C84" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="D84" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="23.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AMG87" s="0"/>
+      <c r="AMH87" s="0"/>
+      <c r="AMI87" s="0"/>
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="AMG20" s="0"/>
-      <c r="AMH20" s="0"/>
-      <c r="AMI20" s="0"/>
-      <c r="AMJ20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="E89" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F89" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H23" s="5" t="s">
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="AMG26" s="0"/>
-      <c r="AMH26" s="0"/>
-      <c r="AMI26" s="0"/>
-      <c r="AMJ26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>302</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="AMG34" s="0"/>
-      <c r="AMH34" s="0"/>
-      <c r="AMI34" s="0"/>
-      <c r="AMJ34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D35" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G36" s="5"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="AMG40" s="9"/>
-      <c r="AMH40" s="9"/>
-      <c r="AMI40" s="9"/>
-      <c r="AMJ40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G42" s="5"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="AMG46" s="9"/>
-      <c r="AMH46" s="9"/>
-      <c r="AMI46" s="9"/>
-      <c r="AMJ46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="AMG49" s="9"/>
-      <c r="AMH49" s="9"/>
-      <c r="AMI49" s="9"/>
-      <c r="AMJ49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H51" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="AMG52" s="9"/>
-      <c r="AMH52" s="9"/>
-      <c r="AMI52" s="9"/>
-      <c r="AMJ52" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="55" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="AMG55" s="9"/>
-      <c r="AMH55" s="9"/>
-      <c r="AMI55" s="9"/>
-      <c r="AMJ55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="B56" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="AMG58" s="9"/>
-      <c r="AMH58" s="9"/>
-      <c r="AMI58" s="9"/>
-      <c r="AMJ58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B59" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="AMG61" s="9"/>
-      <c r="AMH61" s="9"/>
-      <c r="AMI61" s="9"/>
-      <c r="AMJ61" s="0"/>
-    </row>
-    <row r="62" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>265</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="AMG62" s="0"/>
-      <c r="AMH62" s="0"/>
-      <c r="AMI62" s="0"/>
-      <c r="AMJ62" s="0"/>
-    </row>
-    <row r="63" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="25"/>
-      <c r="B63" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AME63" s="0"/>
-      <c r="AMF63" s="0"/>
-      <c r="AMG63" s="0"/>
-      <c r="AMH63" s="0"/>
-      <c r="AMI63" s="0"/>
-      <c r="AMJ63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="66" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="AMG66" s="9"/>
-      <c r="AMH66" s="9"/>
-      <c r="AMI66" s="9"/>
-      <c r="AMJ66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="69" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="AMG69" s="9"/>
-      <c r="AMH69" s="9"/>
-      <c r="AMI69" s="9"/>
-      <c r="AMJ69" s="0"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B70" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="AMG72" s="9"/>
-      <c r="AMH72" s="9"/>
-      <c r="AMI72" s="9"/>
-      <c r="AMJ72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G73" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H73" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="AMG75" s="9"/>
-      <c r="AMH75" s="9"/>
-      <c r="AMI75" s="9"/>
-      <c r="AMJ75" s="0"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B76" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H76" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G77" s="5"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H78" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H79" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H80" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C81" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G81" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H81" s="5" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="G82" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H82" s="5" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="83" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AMG83" s="0"/>
-      <c r="AMH83" s="0"/>
-      <c r="AMI83" s="0"/>
-      <c r="AMJ83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B84" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E84" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H84" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G85" s="5"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H86" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H88" s="5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D89" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E89" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H89" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C90" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D90" s="18" t="s">
-        <v>329</v>
-      </c>
-      <c r="E90" s="17" t="s">
-        <v>305</v>
-      </c>
       <c r="G90" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="8" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="E92" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D93" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="G92" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C93" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D93" s="18" t="s">
+      <c r="E93" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D95" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="E95" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="G93" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H93" s="5" t="s">
+      <c r="G95" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="13" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C94" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D94" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>331</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H94" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E95" s="17" t="s">
-        <v>333</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C96" s="5" t="s">
+      <c r="E103" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AMG104" s="0"/>
+      <c r="AMH104" s="0"/>
+      <c r="AMI104" s="0"/>
+      <c r="AMJ104" s="0"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="E96" s="5" t="s">
+      <c r="D105" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="G96" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C97" s="5" t="s">
+      <c r="H105" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="G97" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G98" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H98" s="5" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="D106" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G106" s="5"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="G99" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H99" s="5" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="100" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
-      <c r="E100" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AMG100" s="0"/>
-      <c r="AMH100" s="0"/>
-      <c r="AMI100" s="0"/>
-      <c r="AMJ100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="24" t="s">
+      <c r="D107" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>365</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G101" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H101" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G102" s="5"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D103" s="8" t="s">
+      <c r="E107" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H107" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="E103" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G103" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H103" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G104" s="5"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="G105" s="5"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="E106" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="G106" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="E107" s="17"/>
-      <c r="F107" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="8" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C108" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G108" s="5" t="s">
         <v>254</v>
       </c>
+      <c r="E108" s="7"/>
+      <c r="F108" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>367</v>
+        <v>257</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="5" t="s">
-        <v>257</v>
+        <v>371</v>
       </c>
       <c r="G109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="C110" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D110" s="18" t="s">
-        <v>291</v>
-      </c>
-      <c r="E110" s="17" t="s">
-        <v>290</v>
+      <c r="D110" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>260</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="C111" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D111" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="E111" s="17"/>
+      <c r="D111" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E111" s="19"/>
       <c r="F111" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G111" s="5"/>
     </row>
@@ -12240,13 +12315,13 @@
         <v>10</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12257,283 +12332,365 @@
         <v>10</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>303</v>
+        <v>372</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="G114" s="5"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C115" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D114" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E114" s="17" t="s">
-        <v>310</v>
-      </c>
-      <c r="G114" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="18" t="s">
+      <c r="D115" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="E115" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C116" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D115" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E115" s="17"/>
-      <c r="F115" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G115" s="5"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G116" s="5" t="s">
-        <v>254</v>
-      </c>
+      <c r="D116" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E116" s="19"/>
+      <c r="F116" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C117" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D117" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E118" s="7"/>
+      <c r="F118" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="20" t="s">
         <v>317</v>
       </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G117" s="5"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="E118" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="G118" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>336</v>
-      </c>
-      <c r="E119" s="17"/>
-      <c r="F119" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G119" s="5"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>254</v>
-      </c>
+      <c r="E120" s="19"/>
+      <c r="F120" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="8" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C121" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G121" s="5"/>
+        <v>321</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C122" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="5" t="s">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="G122" s="5"/>
     </row>
-    <row r="123" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3" t="s">
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>340</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="E124" s="19"/>
+      <c r="F124" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G124" s="5"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="E126" s="7"/>
+      <c r="F126" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E127" s="7"/>
+      <c r="F127" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G127" s="5"/>
+    </row>
+    <row r="128" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AMG123" s="0"/>
-      <c r="AMH123" s="0"/>
-      <c r="AMI123" s="0"/>
-      <c r="AMJ123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="B124" s="24" t="s">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AMG128" s="0"/>
+      <c r="AMH128" s="0"/>
+      <c r="AMI128" s="0"/>
+      <c r="AMJ128" s="0"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="29" t="s">
+        <v>370</v>
+      </c>
+      <c r="B129" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C124" s="24" t="s">
+      <c r="C129" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D124" s="24" t="s">
-        <v>250</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="H124" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="24" t="s">
+      <c r="D129" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C125" s="24" t="s">
+      <c r="C130" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D125" s="24" t="s">
+      <c r="D130" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G125" s="5"/>
-    </row>
-    <row r="126" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3" t="s">
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AMG126" s="0"/>
-      <c r="AMH126" s="0"/>
-      <c r="AMI126" s="0"/>
-      <c r="AMJ126" s="0"/>
-    </row>
-    <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D127" s="22"/>
-      <c r="AMH127" s="23"/>
-      <c r="AMI127" s="23"/>
-      <c r="AMJ127" s="23"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="AMG131" s="0"/>
+      <c r="AMH131" s="0"/>
+      <c r="AMI131" s="0"/>
+      <c r="AMJ131" s="0"/>
+    </row>
+    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D132" s="25"/>
+      <c r="AMH132" s="26"/>
+      <c r="AMI132" s="26"/>
+      <c r="AMJ132" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="E3:E5"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="G8:G11"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="G103:G122"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="G107:G127"/>
     <mergeCell ref="E110:E111"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="E112:E114"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="G129:G130"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12545,512 +12702,508 @@
   </sheetPr>
   <dimension ref="A1:AMJ1025"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.93"/>
-  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="85.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B1" s="5"/>
       <c r="AMJ1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="AMJ2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ6" s="5"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ8" s="5"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>330</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>332</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>279</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="AMJ21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="AMJ2" s="5"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="25" t="s">
-        <v>271</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B22" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ5" s="5"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="25" t="s">
-        <v>290</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C22" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ7" s="5"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ10" s="5"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="s">
-        <v>324</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ11" s="5"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
-        <v>325</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ12" s="5"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ13" s="5"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ14" s="5"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ15" s="5"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ16" s="5"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
-        <v>331</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ17" s="5"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ18" s="5"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25" t="s">
-        <v>281</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ19" s="5"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="25" t="s">
-        <v>277</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>416</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ20" s="5"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="AMJ21" s="5"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="25" t="s">
-        <v>365</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="AMJ22" s="5"/>
     </row>
-    <row r="23" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>422</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="24" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="D24" s="27" t="s">
+    <row r="23" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30" t="s">
         <v>428</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="24" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>434</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="AMH25" s="23"/>
-      <c r="AMI25" s="23"/>
-      <c r="AMJ25" s="23"/>
+        <v>204</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="AMH25" s="26"/>
+      <c r="AMI25" s="26"/>
+      <c r="AMJ25" s="26"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="AMJ26" s="5"/>
@@ -16054,11 +16207,11 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>